--- a/OFAT6factors0replicaRandomized.xlsx
+++ b/OFAT6factors0replicaRandomized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blaine/0467NAfactorialDesigns/genSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98A841F-BEC5-8846-AD4F-A48F1E12774F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710E2B61-DFD6-0F4C-88B8-2A7AB6A8BD0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-620" yWindow="11100" windowWidth="45040" windowHeight="26900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="900" windowWidth="45040" windowHeight="26900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -452,2407 +452,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="528">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="288">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6072,9 +3672,9 @@
   </sheetPr>
   <dimension ref="A1:BC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AY22" sqref="AY22"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6177,13 +3777,13 @@
       </c>
       <c r="C7">
         <f ca="1">RAND()</f>
-        <v>0.81545941758921214</v>
+        <v>3.612307971686235E-2</v>
       </c>
       <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
         <v>1</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6202,7 +3802,7 @@
       </c>
       <c r="K7">
         <f>$B$66 + (E7 * $C$66)</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L7">
         <f>$B$67 + (F7 * $C$67)</f>
@@ -6298,13 +3898,13 @@
       </c>
       <c r="C8">
         <f ca="1">RAND()</f>
-        <v>0.56292302184945331</v>
+        <v>0.39638291553653093</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0.35</v>
+        <v>-0.35</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6323,7 +3923,7 @@
       </c>
       <c r="K8">
         <f>$B$66 + (E8 * $C$66)</f>
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="L8">
         <f>$B$67 + (F8 * $C$67)</f>
@@ -6353,7 +3953,7 @@
       </c>
       <c r="U8" s="3">
         <f>VLOOKUP($A$7,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V8" s="3">
         <f>$B$90</f>
@@ -6367,7 +3967,7 @@
       </c>
       <c r="Z8" s="3">
         <f>VLOOKUP($A$8,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="3">
         <f>$B$90</f>
@@ -6381,7 +3981,7 @@
       </c>
       <c r="AE8" s="3">
         <f>VLOOKUP($A$9,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF8" s="3">
         <f>$B$90</f>
@@ -6395,7 +3995,7 @@
       </c>
       <c r="AJ8" s="3">
         <f>VLOOKUP($A$10,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK8" s="3">
         <f>$B$90</f>
@@ -6423,7 +4023,7 @@
       </c>
       <c r="AT8" s="3">
         <f>VLOOKUP($A$12,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU8" s="3">
         <f>$B$90</f>
@@ -6457,13 +4057,13 @@
       </c>
       <c r="C9">
         <f ca="1">RAND()</f>
-        <v>0.87326993076447246</v>
+        <v>0.81701863910337524</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>-0.35</v>
+        <v>0.35</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6482,7 +4082,7 @@
       </c>
       <c r="K9">
         <f>$B$66 + (E9 * $C$66)</f>
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="L9">
         <f>$B$67 + (F9 * $C$67)</f>
@@ -6578,7 +4178,7 @@
       </c>
       <c r="AX9" s="3">
         <f>VLOOKUP($A$7,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY9" s="3">
         <f>VLOOKUP($A$11,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
@@ -6610,13 +4210,13 @@
       </c>
       <c r="C10">
         <f ca="1">RAND()</f>
-        <v>0.56715968804639083</v>
+        <v>0.59931456032641706</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6635,7 +4235,7 @@
       </c>
       <c r="K10">
         <f>$B$66 + (E10 * $C$66)</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <f>$B$67 + (F10 * $C$67)</f>
@@ -6663,7 +4263,7 @@
       </c>
       <c r="T10" s="3">
         <f>VLOOKUP($A$7,$A$6:$N$30,MATCH($K$6,$A$6:$N$6,0),0)</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="U10" s="3">
         <f>$B$82</f>
@@ -6671,7 +4271,7 @@
       </c>
       <c r="V10" s="2">
         <f>($T$10/$U$10)*$B$90</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X10" s="3" t="str">
         <f>$A$82</f>
@@ -6679,7 +4279,7 @@
       </c>
       <c r="Y10" s="3">
         <f>VLOOKUP($A$8,$A$6:$N$30,MATCH($K$6,$A$6:$N$6,0),0)</f>
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="Z10" s="3">
         <f>$B$82</f>
@@ -6687,7 +4287,7 @@
       </c>
       <c r="AA10" s="2">
         <f>($Y$10/$Z$10)*$B$90</f>
-        <v>10.8</v>
+        <v>5.2</v>
       </c>
       <c r="AC10" s="3" t="str">
         <f>$A$82</f>
@@ -6695,7 +4295,7 @@
       </c>
       <c r="AD10" s="3">
         <f>VLOOKUP($A$9,$A$6:$N$30,MATCH($K$6,$A$6:$N$6,0),0)</f>
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="AE10" s="3">
         <f>$B$82</f>
@@ -6703,7 +4303,7 @@
       </c>
       <c r="AF10" s="2">
         <f>($AD$10/$AE$10)*$B$90</f>
-        <v>5.2</v>
+        <v>10.8</v>
       </c>
       <c r="AH10" s="3" t="str">
         <f>$A$82</f>
@@ -6711,7 +4311,7 @@
       </c>
       <c r="AI10" s="3">
         <f>VLOOKUP($A$10,$A$6:$N$30,MATCH($K$6,$A$6:$N$6,0),0)</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="3">
         <f>$B$82</f>
@@ -6719,7 +4319,7 @@
       </c>
       <c r="AK10" s="2">
         <f>($AI$10/$AJ$10)*$B$90</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="3" t="str">
         <f>$A$82</f>
@@ -6762,8 +4362,8 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <f ca="1">RAND()</f>
-        <v>0.19795562131455136</v>
+        <f t="shared" ref="C7:C30" ca="1" si="0">RAND()</f>
+        <v>0.93174252275084024</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -6787,27 +4387,27 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <f>$B$66 + (E11 * $C$66)</f>
+        <f t="shared" ref="K7:K30" si="1">$B$66 + (E11 * $C$66)</f>
         <v>80</v>
       </c>
       <c r="L11">
-        <f>$B$67 + (F11 * $C$67)</f>
+        <f t="shared" ref="L7:L30" si="2">$B$67 + (F11 * $C$67)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>$B$68 + (G11 * $C$68)</f>
+        <f t="shared" ref="M7:M30" si="3">$B$68 + (G11 * $C$68)</f>
         <v>20</v>
       </c>
       <c r="N11">
-        <f>$B$69 + (H11 * $C$69)</f>
+        <f t="shared" ref="N7:N30" si="4">$B$69 + (H11 * $C$69)</f>
         <v>10</v>
       </c>
       <c r="O11">
-        <f>$B$70+(I11*$C$70)</f>
+        <f t="shared" ref="O7:O30" si="5">$B$70+(I11*$C$70)</f>
         <v>40</v>
       </c>
       <c r="P11">
-        <f>$B$71+(J11*$C$71)</f>
+        <f t="shared" ref="P7:P30" si="6">$B$71+(J11*$C$71)</f>
         <v>40</v>
       </c>
       <c r="S11" s="3" t="str">
@@ -6896,7 +4496,7 @@
       </c>
       <c r="AS11" s="3">
         <f>VLOOKUP($A$12,$A$6:$N$30,MATCH($L$6,$A$6:$N$6,0),0)</f>
-        <v>24</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="AT11" s="3">
         <f>$B$83</f>
@@ -6904,7 +4504,7 @@
       </c>
       <c r="AU11" s="2">
         <f>($AS$11/$AT$11)*$B$90</f>
-        <v>48</v>
+        <v>15.600000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
@@ -6916,16 +4516,16 @@
       </c>
       <c r="C12">
         <f ca="1">RAND()</f>
-        <v>0.95419173333955398</v>
+        <v>0.51033337122683642</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>-0.35</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -6945,7 +4545,7 @@
       </c>
       <c r="L12">
         <f>$B$67 + (F12 * $C$67)</f>
-        <v>24</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="M12">
         <f>$B$68 + (G12 * $C$68)</f>
@@ -7087,7 +4687,7 @@
       </c>
       <c r="C13">
         <f ca="1">RAND()</f>
-        <v>0.168656412377309</v>
+        <v>5.2618672021817692E-2</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -7232,15 +4832,15 @@
       </c>
       <c r="AX13" s="3">
         <f>VLOOKUP($A$8,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY13" s="3">
         <f>VLOOKUP($A$12,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ13" s="3">
         <f>VLOOKUP($A$16,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA13" s="3">
         <f>VLOOKUP($A$20,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
@@ -7264,16 +4864,16 @@
       </c>
       <c r="C14">
         <f ca="1">RAND()</f>
-        <v>5.3661725036599828E-2</v>
+        <v>0.59026358813963942</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.35</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -7293,7 +4893,7 @@
       </c>
       <c r="L14">
         <f>$B$67 + (F14 * $C$67)</f>
-        <v>7.8000000000000007</v>
+        <v>24</v>
       </c>
       <c r="M14">
         <f>$B$68 + (G14 * $C$68)</f>
@@ -7416,8 +5016,8 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <f ca="1">RAND()</f>
-        <v>0.58662139067203689</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67168923029835503</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -7441,27 +5041,27 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <f>$B$66 + (E15 * $C$66)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="L15">
-        <f>$B$67 + (F15 * $C$67)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M15">
-        <f>$B$68 + (G15 * $C$68)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f>$B$69 + (H15 * $C$69)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="O15">
-        <f>$B$70+(I15*$C$70)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="P15">
-        <f>$B$71+(J15*$C$71)</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="S15" s="3" t="str">
@@ -7569,10 +5169,10 @@
       </c>
       <c r="C16">
         <f ca="1">RAND()</f>
-        <v>0.17816152429075538</v>
+        <v>0.89305163030946</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -7581,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -7602,7 +5202,7 @@
       </c>
       <c r="M16">
         <f>$B$68 + (G16 * $C$68)</f>
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <f>$B$69 + (H16 * $C$69)</f>
@@ -7627,7 +5227,7 @@
       </c>
       <c r="V16" s="2">
         <f>$V$8-($V$10+$V$11+$V$12+$V$13+$V$14+$V$15)</f>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="X16" s="3" t="s">
         <v>49</v>
@@ -7640,7 +5240,7 @@
       </c>
       <c r="AA16" s="2">
         <f>$AA$8-($AA$10+$AA$11+$AA$12+$AA$13+$AA$14+$AA$15)</f>
-        <v>25.200000000000003</v>
+        <v>30.799999999999997</v>
       </c>
       <c r="AC16" s="3" t="s">
         <v>49</v>
@@ -7653,7 +5253,7 @@
       </c>
       <c r="AF16" s="2">
         <f>$AF$8-($AF$10+$AF$11+$AF$12+$AF$13+$AF$14+$AF$15)</f>
-        <v>44.8</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="AH16" s="3" t="s">
         <v>49</v>
@@ -7666,7 +5266,7 @@
       </c>
       <c r="AK16" s="2">
         <f>$AK$8-($AK$10+$AK$11+$AK$12+$AK$13+$AK$14+$AK$15)</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AM16" s="3" t="s">
         <v>49</v>
@@ -7692,7 +5292,7 @@
       </c>
       <c r="AU16" s="2">
         <f>$AU$8-($AU$10+$AU$11+$AU$12+$AU$13+$AU14++$AU$15)</f>
-        <v>4</v>
+        <v>36.4</v>
       </c>
       <c r="AX16" s="2" t="s">
         <v>23</v>
@@ -7722,10 +5322,10 @@
       </c>
       <c r="C17">
         <f ca="1">RAND()</f>
-        <v>0.84779658819501369</v>
+        <v>0.61452860617695282</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -7734,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -7755,7 +5355,7 @@
       </c>
       <c r="M17">
         <f>$B$68 + (G17 * $C$68)</f>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <f>$B$69 + (H17 * $C$69)</f>
@@ -7846,7 +5446,7 @@
       </c>
       <c r="AX17" s="3">
         <f>VLOOKUP($A$9,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY17" s="3">
         <f>VLOOKUP($A$13,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
@@ -7854,7 +5454,7 @@
       </c>
       <c r="AZ17" s="3">
         <f>VLOOKUP($A$17,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA17" s="3">
         <f>VLOOKUP($A$21,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
@@ -7862,7 +5462,7 @@
       </c>
       <c r="BB17" s="3">
         <f>VLOOKUP($A$25,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC17" s="3">
         <f>VLOOKUP($A$29,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
@@ -7878,7 +5478,7 @@
       </c>
       <c r="C18">
         <f ca="1">RAND()</f>
-        <v>5.9397165213940006E-2</v>
+        <v>0.13669468329906509</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -7976,8 +5576,8 @@
         <v>13</v>
       </c>
       <c r="C19">
-        <f ca="1">RAND()</f>
-        <v>0.70881026381355283</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56360168928076226</v>
       </c>
       <c r="D19">
         <v>13</v>
@@ -8001,27 +5601,27 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <f>$B$66 + (E19 * $C$66)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="L19">
-        <f>$B$67 + (F19 * $C$67)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M19">
-        <f>$B$68 + (G19 * $C$68)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="N19">
-        <f>$B$69 + (H19 * $C$69)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O19">
-        <f>$B$70+(I19*$C$70)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="P19">
-        <f>$B$71+(J19*$C$71)</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="S19" s="3" t="s">
@@ -8076,7 +5676,7 @@
       </c>
       <c r="C20">
         <f ca="1">RAND()</f>
-        <v>0.36546118497157543</v>
+        <v>6.6928842241170572E-2</v>
       </c>
       <c r="D20">
         <v>16</v>
@@ -8175,7 +5775,7 @@
       </c>
       <c r="C21">
         <f ca="1">RAND()</f>
-        <v>0.38392148822183647</v>
+        <v>0.79892725333028669</v>
       </c>
       <c r="D21">
         <v>14</v>
@@ -8224,11 +5824,11 @@
       </c>
       <c r="AX21" s="3">
         <f>VLOOKUP($A$10,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="3">
         <f>VLOOKUP($A$14,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ21" s="3">
         <f>VLOOKUP($A$18,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
@@ -8240,7 +5840,7 @@
       </c>
       <c r="BB21" s="3">
         <f>VLOOKUP($A$26,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC21" s="3">
         <f>VLOOKUP($A$30,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
@@ -8256,7 +5856,7 @@
       </c>
       <c r="C22">
         <f ca="1">RAND()</f>
-        <v>5.1146860992262067E-2</v>
+        <v>0.58893574929588777</v>
       </c>
       <c r="D22">
         <v>15</v>
@@ -8325,7 +5925,7 @@
       </c>
       <c r="Z22" s="3">
         <f>VLOOKUP($A$14,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA22" s="3">
         <f>$B$90</f>
@@ -8353,7 +5953,7 @@
       </c>
       <c r="AJ22" s="3">
         <f>VLOOKUP($A$16,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK22" s="3">
         <f>$B$90</f>
@@ -8367,7 +5967,7 @@
       </c>
       <c r="AO22" s="3">
         <f>VLOOKUP($A$17,$A$6:$N$30,MATCH($D$6,$A$6:$N$6,0),0)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP22" s="3">
         <f>$B$90</f>
@@ -8396,8 +5996,8 @@
         <v>17</v>
       </c>
       <c r="C23">
-        <f ca="1">RAND()</f>
-        <v>0.2094093117575373</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74410088559934973</v>
       </c>
       <c r="D23">
         <v>17</v>
@@ -8421,27 +6021,27 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <f>$B$66 + (E23 * $C$66)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="L23">
-        <f>$B$67 + (F23 * $C$67)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M23">
-        <f>$B$68 + (G23 * $C$68)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="N23">
-        <f>$B$69 + (H23 * $C$69)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="O23">
-        <f>$B$70+(I23*$C$70)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P23">
-        <f>$B$71+(J23*$C$71)</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="S23" s="3" t="s">
@@ -8526,7 +6126,7 @@
       </c>
       <c r="C24">
         <f ca="1">RAND()</f>
-        <v>0.2790533818306753</v>
+        <v>0.45632402261751748</v>
       </c>
       <c r="D24">
         <v>18</v>
@@ -8679,10 +6279,10 @@
       </c>
       <c r="C25">
         <f ca="1">RAND()</f>
-        <v>0.28691956560363063</v>
+        <v>3.2626651233710446E-2</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -8697,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -8720,7 +6320,7 @@
       </c>
       <c r="O25">
         <f>$B$70+(I25*$C$70)</f>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="P25">
         <f>$B$71+(J25*$C$71)</f>
@@ -8748,7 +6348,7 @@
       </c>
       <c r="Y25" s="3">
         <f>VLOOKUP($A$14,$A$6:$N$30,MATCH($L$6,$A$6:$N$6,0),0)</f>
-        <v>7.8000000000000007</v>
+        <v>24</v>
       </c>
       <c r="Z25" s="3">
         <f>$B$83</f>
@@ -8756,7 +6356,7 @@
       </c>
       <c r="AA25" s="2">
         <f>($Y$25/$Z$25)*$B$90</f>
-        <v>15.600000000000003</v>
+        <v>48</v>
       </c>
       <c r="AC25" s="3" t="str">
         <f>$A$83</f>
@@ -8832,10 +6432,10 @@
       </c>
       <c r="C26">
         <f ca="1">RAND()</f>
-        <v>0.16142636357578999</v>
+        <v>0.36910830399218952</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -8850,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -8873,7 +6473,7 @@
       </c>
       <c r="O26">
         <f>$B$70+(I26*$C$70)</f>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="P26">
         <f>$B$71+(J26*$C$71)</f>
@@ -8933,7 +6533,7 @@
       </c>
       <c r="AI26" s="3">
         <f>VLOOKUP($A$16,$A$6:$N$30,MATCH($M$6,$A$6:$N$6,0),0)</f>
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AJ26" s="3">
         <f>$B$84</f>
@@ -8941,7 +6541,7 @@
       </c>
       <c r="AK26" s="2">
         <f>($AI$26/$AJ$26)*$B$90</f>
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="AM26" s="3" t="str">
         <f>$A$84</f>
@@ -8949,7 +6549,7 @@
       </c>
       <c r="AN26" s="3">
         <f>VLOOKUP($A$17,$A$6:$N$30,MATCH($M$6,$A$6:$N$6,0),0)</f>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AO26" s="3">
         <f>$B$84</f>
@@ -8957,7 +6557,7 @@
       </c>
       <c r="AP26" s="2">
         <f>($AN$26/$AO$26)*$B$90</f>
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="AR26" s="3" t="str">
         <f>$A$84</f>
@@ -8984,8 +6584,8 @@
         <v>21</v>
       </c>
       <c r="C27">
-        <f ca="1">RAND()</f>
-        <v>8.846225882455816E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60989225902629274</v>
       </c>
       <c r="D27">
         <v>24</v>
@@ -9009,27 +6609,27 @@
         <v>1</v>
       </c>
       <c r="K27">
-        <f>$B$66 + (E27 * $C$66)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="L27">
-        <f>$B$67 + (F27 * $C$67)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M27">
-        <f>$B$68 + (G27 * $C$68)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="N27">
-        <f>$B$69 + (H27 * $C$69)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="O27">
-        <f>$B$70+(I27*$C$70)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="P27">
-        <f>$B$71+(J27*$C$71)</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="S27" s="3" t="str">
@@ -9138,7 +6738,7 @@
       </c>
       <c r="C28">
         <f ca="1">RAND()</f>
-        <v>0.87906406827393735</v>
+        <v>3.1023581767941621E-2</v>
       </c>
       <c r="D28">
         <v>23</v>
@@ -9291,7 +6891,7 @@
       </c>
       <c r="C29">
         <f ca="1">RAND()</f>
-        <v>0.67148781866890506</v>
+        <v>0.94877400203453088</v>
       </c>
       <c r="D29">
         <v>21</v>
@@ -9443,7 +7043,7 @@
       </c>
       <c r="C30">
         <f ca="1">RAND()</f>
-        <v>0.97241769859602523</v>
+        <v>0.85723982569124424</v>
       </c>
       <c r="D30">
         <v>22</v>
@@ -9514,7 +7114,7 @@
       </c>
       <c r="AA30" s="2">
         <f>$AA$22-($AA$24+$AA$25+$AA$26+$AA$27+$AA$28+$AA$29)</f>
-        <v>50.4</v>
+        <v>18</v>
       </c>
       <c r="AC30" s="3" t="s">
         <v>49</v>
@@ -9540,7 +7140,7 @@
       </c>
       <c r="AK30" s="2">
         <f>$AK$22-($AK$24+$AK$25+$AK$26+$AK$27+$AK$28+$AK$29)</f>
-        <v>27.299999999999997</v>
+        <v>26</v>
       </c>
       <c r="AM30" s="3" t="s">
         <v>49</v>
@@ -9553,7 +7153,7 @@
       </c>
       <c r="AP30" s="2">
         <f>$AP$22-($AP$24+$AP$25+$AP$26+$AP$27+$AP$28+$AP$29)</f>
-        <v>26</v>
+        <v>27.299999999999997</v>
       </c>
       <c r="AR30" s="3" t="s">
         <v>49</v>
@@ -10793,7 +8393,7 @@
       </c>
       <c r="U50" s="3">
         <f>VLOOKUP($A$25,$A$6:$L$30,MATCH($D$6,$A$6:$L$6,0),0)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V50" s="3">
         <f>$B$90</f>
@@ -10807,7 +8407,7 @@
       </c>
       <c r="Z50" s="3">
         <f>VLOOKUP($A$26,$A$6:$L$30,MATCH($D$6,$A$6:$L$6,0),0)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA50" s="3">
         <f>$B$90</f>
@@ -12057,966 +9657,966 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C27:P30">
-    <sortCondition ref="C27:C30"/>
+  <sortState ref="C28:P30">
+    <sortCondition ref="C27"/>
   </sortState>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="cellIs" dxfId="527" priority="243" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="255" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="267" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="279" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="291" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="303" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="243" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="255" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="267" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="279" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="291" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="303" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16">
-    <cfRule type="cellIs" dxfId="521" priority="249" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="261" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="273" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="285" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="517" priority="297" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="309" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="281" priority="249" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="261" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="279" priority="273" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="285" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="297" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="309" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA29">
-    <cfRule type="cellIs" dxfId="515" priority="315" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="327" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="339" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="351" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="363" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="375" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="315" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="327" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="339" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="351" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="363" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="375" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA30">
-    <cfRule type="cellIs" dxfId="509" priority="321" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="333" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="345" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="357" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="369" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="381" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="269" priority="321" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="333" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="345" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="357" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="369" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="381" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA43">
-    <cfRule type="cellIs" dxfId="503" priority="387" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="399" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="411" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="423" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="435" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="447" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="387" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="399" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="411" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="423" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="435" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="447" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA44">
-    <cfRule type="cellIs" dxfId="497" priority="393" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="405" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="417" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="429" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="441" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="453" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="257" priority="393" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="405" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="417" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="429" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="441" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="453" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA57">
-    <cfRule type="cellIs" dxfId="491" priority="459" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="471" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="483" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="495" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="507" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="519" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="459" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="471" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="483" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="495" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="507" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="519" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA58">
-    <cfRule type="cellIs" dxfId="485" priority="465" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="477" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="489" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="501" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="513" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="525" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="245" priority="465" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="477" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="489" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="501" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="513" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="525" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF15">
-    <cfRule type="cellIs" dxfId="479" priority="244" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="256" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="268" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="280" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="292" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="304" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="244" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="256" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="268" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="280" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="292" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="304" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF16">
-    <cfRule type="cellIs" dxfId="473" priority="250" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="262" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="274" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="286" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="298" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="310" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="233" priority="250" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="262" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="274" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="286" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="298" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="310" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF29">
-    <cfRule type="cellIs" dxfId="467" priority="316" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="328" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="340" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="352" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="364" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="376" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="316" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="328" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="340" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="352" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="364" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="376" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF30">
-    <cfRule type="cellIs" dxfId="461" priority="322" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="334" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="346" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="358" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="370" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="382" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="221" priority="322" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="334" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="346" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="358" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="370" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="382" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF43">
-    <cfRule type="cellIs" dxfId="455" priority="388" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="400" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="412" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="424" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="436" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="448" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="388" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="400" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="412" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="424" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="436" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="448" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF44">
-    <cfRule type="cellIs" dxfId="449" priority="394" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="406" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="418" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="430" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="442" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="454" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="209" priority="394" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="406" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="418" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="430" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="442" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="454" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF57">
-    <cfRule type="cellIs" dxfId="443" priority="460" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="472" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="484" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="496" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="508" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="520" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="460" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="472" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="484" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="496" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="508" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="520" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF58">
-    <cfRule type="cellIs" dxfId="437" priority="466" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="478" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="490" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="502" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="514" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="526" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="197" priority="466" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="478" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="490" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="502" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="514" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="526" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK15">
-    <cfRule type="cellIs" dxfId="431" priority="245" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="257" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="269" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="281" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="293" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="305" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="245" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="257" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="269" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="281" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="293" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="305" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16">
-    <cfRule type="cellIs" dxfId="425" priority="251" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="263" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="275" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="287" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="299" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="311" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="251" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="263" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="275" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="287" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="299" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="311" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK29">
-    <cfRule type="cellIs" dxfId="419" priority="317" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="329" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="341" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="353" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="365" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="377" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="317" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="329" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="341" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="353" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="365" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="377" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK30">
-    <cfRule type="cellIs" dxfId="413" priority="323" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="323" operator="greaterThan">
       <formula>$B90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="335" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="335" operator="greaterThan">
       <formula>$B90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="347" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="347" operator="greaterThan">
       <formula>$B90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="359" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="359" operator="greaterThan">
       <formula>$B90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="371" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="371" operator="greaterThan">
       <formula>$B90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="383" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="383" operator="greaterThan">
       <formula>$B90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK43">
-    <cfRule type="cellIs" dxfId="407" priority="389" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="401" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="413" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="425" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="437" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="449" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="389" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="401" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="413" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="425" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="437" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="449" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK44">
-    <cfRule type="cellIs" dxfId="401" priority="395" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="407" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="419" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="431" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="443" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="455" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="395" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="407" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="419" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="431" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="443" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="455" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK57">
-    <cfRule type="cellIs" dxfId="395" priority="461" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="473" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="485" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="497" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="509" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="521" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="461" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="473" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="485" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="497" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="509" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="521" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK58">
-    <cfRule type="cellIs" dxfId="389" priority="467" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="479" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="491" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="503" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="515" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="527" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="467" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="479" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="491" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="503" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="515" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="527" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP15">
-    <cfRule type="cellIs" dxfId="383" priority="246" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="258" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="270" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="282" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="294" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="306" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="246" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="258" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="270" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="282" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="294" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="306" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP16">
-    <cfRule type="cellIs" dxfId="377" priority="252" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="264" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="276" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="288" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="300" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="312" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="252" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="264" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="276" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="288" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="300" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="312" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP29">
-    <cfRule type="cellIs" dxfId="371" priority="318" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="330" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="342" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="354" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="366" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="378" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="318" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="330" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="342" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="354" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="366" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="378" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP30">
-    <cfRule type="cellIs" dxfId="365" priority="324" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="336" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="348" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="360" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="372" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="384" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="324" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="336" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="348" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="360" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="372" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="384" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP43">
-    <cfRule type="cellIs" dxfId="359" priority="390" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="402" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="414" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="426" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="438" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="450" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="390" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="402" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="414" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="426" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="438" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="450" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP44">
-    <cfRule type="cellIs" dxfId="353" priority="396" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="408" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="420" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="432" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="444" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="456" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="396" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="408" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="420" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="432" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="444" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="456" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP57">
-    <cfRule type="cellIs" dxfId="347" priority="462" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="474" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="486" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="498" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="510" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="522" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="462" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="474" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="486" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="498" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="510" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="522" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP58">
-    <cfRule type="cellIs" dxfId="341" priority="468" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="480" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="492" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="504" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="516" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="528" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="468" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="480" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="492" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="504" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="516" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="528" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="335" priority="241" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="253" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="265" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="277" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="289" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="301" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="241" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="253" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="265" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="277" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="289" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="301" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="329" priority="247" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="259" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="271" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="283" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="295" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="307" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="247" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="259" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="271" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="283" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="295" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="307" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27">
-    <cfRule type="cellIs" dxfId="323" priority="313" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="325" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="337" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="349" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="361" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="373" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="313" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="325" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="337" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="349" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="361" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="373" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28">
-    <cfRule type="cellIs" dxfId="317" priority="319" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="331" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="343" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="355" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="367" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="379" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="319" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="331" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="343" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="355" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="367" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="379" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q40">
-    <cfRule type="cellIs" dxfId="311" priority="385" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="397" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="409" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="421" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="433" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="445" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="385" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="397" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="409" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="421" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="433" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="445" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q41">
-    <cfRule type="cellIs" dxfId="305" priority="391" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="403" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="415" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="427" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="439" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="451" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="391" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="403" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="415" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="427" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="439" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="451" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q53">
-    <cfRule type="cellIs" dxfId="299" priority="457" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="469" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="481" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="493" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="505" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="517" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="457" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="469" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="481" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="493" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="505" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="517" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54">
-    <cfRule type="cellIs" dxfId="293" priority="463" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="475" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="487" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="499" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="511" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="523" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="463" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="475" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="487" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="499" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="511" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="523" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15">
-    <cfRule type="cellIs" dxfId="287" priority="242" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="254" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="266" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="278" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="290" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="302" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="242" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="254" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="266" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="278" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="290" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="302" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="281" priority="248" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="260" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="272" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="284" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="296" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="308" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="248" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="260" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="272" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="284" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="296" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="308" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29">
-    <cfRule type="cellIs" dxfId="275" priority="314" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="326" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="338" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="350" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="362" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="374" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="314" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="326" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="338" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="350" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="362" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="374" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V30">
-    <cfRule type="cellIs" dxfId="269" priority="320" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="332" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="344" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="356" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="368" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="380" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="320" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="332" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="344" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="356" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="368" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="380" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V43">
-    <cfRule type="cellIs" dxfId="263" priority="386" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="398" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="410" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="422" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="434" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="446" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="386" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="398" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="410" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="422" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="434" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="446" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44">
-    <cfRule type="cellIs" dxfId="257" priority="392" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="404" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="416" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="428" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="440" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="452" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="392" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="404" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="416" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="428" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="440" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="452" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V57">
-    <cfRule type="cellIs" dxfId="251" priority="458" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="470" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="482" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="494" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="506" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="518" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="458" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="470" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="482" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="494" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="506" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="518" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V58">
-    <cfRule type="cellIs" dxfId="245" priority="464" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="476" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="488" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="500" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="512" operator="greaterThan">
-      <formula>$B$90</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="524" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="464" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="476" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="488" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="500" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="512" operator="greaterThan">
+      <formula>$B$90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="524" operator="greaterThan">
       <formula>$B$90</formula>
     </cfRule>
   </conditionalFormatting>
